--- a/751.xlsx
+++ b/751.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kras2\PycharmProjects\Numerov_method\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0163467\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73616EDE-FC6E-4047-90E4-59A27542A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -61,11 +60,14 @@
   <si>
     <t xml:space="preserve">отношение погрешностей = </t>
   </si>
+  <si>
+    <t>№751</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,19 +155,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -574,19 +564,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -995,19 +973,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1907,6 +1873,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1914,7 +1881,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2874,11 +2840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3694,7 @@
         <v>1.044369479785701E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.5500000000000009</v>
       </c>
@@ -3753,8 +3719,11 @@
       <c r="H33">
         <v>1.078822142730473E-9</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.600000000000001</v>
       </c>
@@ -3780,7 +3749,7 @@
         <v>1.1132089694498859E-9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.650000000000001</v>
       </c>
@@ -3806,7 +3775,7 @@
         <v>1.147522854516581E-9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.7000000000000011</v>
       </c>
@@ -3832,7 +3801,7 @@
         <v>1.1817559153470821E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.7500000000000011</v>
       </c>
@@ -3858,7 +3827,7 @@
         <v>1.215899825268707E-9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.8000000000000009</v>
       </c>
@@ -3884,7 +3853,7 @@
         <v>1.249945924541862E-9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.850000000000001</v>
       </c>
@@ -3910,7 +3879,7 @@
         <v>1.283884554226233E-9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.900000000000001</v>
       </c>
@@ -3936,7 +3905,7 @@
         <v>1.3177059443592041E-9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.9500000000000011</v>
       </c>
@@ -3962,7 +3931,7 @@
         <v>1.351398992710529E-9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.0000000000000009</v>
       </c>
@@ -3988,7 +3957,7 @@
         <v>1.3849525970499601E-9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.0500000000000012</v>
       </c>
@@ -4014,7 +3983,7 @@
         <v>1.4183543228796221E-9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.100000000000001</v>
       </c>
@@ -4040,7 +4009,7 @@
         <v>1.4515919577462451E-9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.15</v>
       </c>
@@ -4066,7 +4035,7 @@
         <v>1.484651068750509E-9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.2000000000000002</v>
       </c>
@@ -4092,7 +4061,7 @@
         <v>1.517517889126907E-9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.25</v>
       </c>
@@ -4118,7 +4087,7 @@
         <v>1.550176875753095E-9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.2999999999999998</v>
       </c>
